--- a/src/test/java/dataEngine/WO Track Renewals 1.xlsx
+++ b/src/test/java/dataEngine/WO Track Renewals 1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="248">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -51,9 +51,6 @@
     <t>openBrowser</t>
   </si>
   <si>
-    <t>Mozilla</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -748,6 +745,21 @@
   </si>
   <si>
     <t>mxeng1</t>
+  </si>
+  <si>
+    <t>WO Track Renewals 2</t>
+  </si>
+  <si>
+    <t>txtbx_ScheduledStart</t>
+  </si>
+  <si>
+    <t>dummydate</t>
+  </si>
+  <si>
+    <t>lnk_SetSchedDate</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -821,7 +833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -871,12 +883,43 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1172,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD423"/>
+  <dimension ref="A1:XFD424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,10 +1265,10 @@
     </row>
     <row r="2" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>92</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>93</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>9</v>
@@ -1237,14 +1280,14 @@
         <v>10</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>11</v>
+        <v>247</v>
       </c>
       <c r="I2"/>
       <c r="J2" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L2" s="21">
         <v>3.0009999999999999</v>
@@ -1252,338 +1295,338 @@
     </row>
     <row r="3" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="H3" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>35</v>
       </c>
       <c r="I5"/>
     </row>
     <row r="6" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>17</v>
-      </c>
       <c r="H6" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I7"/>
     </row>
     <row r="8" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="20" t="s">
         <v>100</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>101</v>
       </c>
       <c r="I8"/>
     </row>
     <row r="9" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>103</v>
       </c>
       <c r="I9"/>
     </row>
     <row r="10" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>105</v>
-      </c>
       <c r="G10" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10"/>
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11"/>
       <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="19" t="s">
         <v>107</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>108</v>
       </c>
       <c r="I12"/>
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>110</v>
-      </c>
       <c r="G13" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13"/>
     </row>
     <row r="14" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I14"/>
     </row>
     <row r="15" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I15"/>
     </row>
     <row r="16" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I16"/>
     </row>
     <row r="17" spans="1:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I17"/>
     </row>
     <row r="18" spans="1:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18"/>
       <c r="M18" s="17"/>
@@ -17961,614 +18004,614 @@
     </row>
     <row r="19" spans="1:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I19"/>
     </row>
     <row r="20" spans="1:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>22</v>
+        <v>244</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="19" t="s">
-        <v>51</v>
+      <c r="H20" s="23" t="s">
+        <v>245</v>
       </c>
       <c r="I20"/>
     </row>
     <row r="21" spans="1:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="I21"/>
       <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>122</v>
+        <v>19</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="I22"/>
     </row>
     <row r="23" spans="1:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I23"/>
     </row>
     <row r="24" spans="1:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="21">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="I24"/>
     </row>
     <row r="25" spans="1:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="19">
-        <v>3.0009999999999999</v>
+        <v>24</v>
+      </c>
+      <c r="H25" s="21">
+        <v>3</v>
       </c>
       <c r="I25"/>
     </row>
     <row r="26" spans="1:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>51</v>
+        <v>93</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="19">
+        <v>3.0009999999999999</v>
       </c>
       <c r="I26"/>
     </row>
     <row r="27" spans="1:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>17</v>
+        <v>50</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I27"/>
     </row>
     <row r="28" spans="1:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F28" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="I28"/>
     </row>
     <row r="29" spans="1:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="H29" s="19" t="b">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="I29"/>
     </row>
     <row r="30" spans="1:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>51</v>
+        <v>72</v>
+      </c>
+      <c r="H30" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="I30"/>
     </row>
     <row r="31" spans="1:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I31"/>
     </row>
     <row r="32" spans="1:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="I32"/>
     </row>
     <row r="33" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="I33"/>
     </row>
     <row r="34" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I34"/>
     </row>
     <row r="35" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I35"/>
     </row>
     <row r="36" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="19">
-        <v>1</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="I36"/>
       <c r="J36" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>51</v>
+        <v>9</v>
+      </c>
+      <c r="F37" s="19">
+        <v>1</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="I37"/>
     </row>
     <row r="38" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>51</v>
+        <v>12</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>242</v>
       </c>
       <c r="I38"/>
       <c r="J38" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>15</v>
+        <v>50</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I39"/>
     </row>
     <row r="40" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D40" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="I40"/>
     </row>
     <row r="41" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>241</v>
+        <v>35</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I41"/>
     </row>
     <row r="42" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I42"/>
     </row>
     <row r="43" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I43"/>
     </row>
     <row r="44" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I44"/>
     </row>
     <row r="45" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H45" s="19" t="b">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="I45"/>
     </row>
     <row r="46" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H46" s="19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46"/>
     </row>
     <row r="47" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="H47" s="19" t="b">
         <v>0</v>
@@ -18577,19 +18620,19 @@
     </row>
     <row r="48" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F48" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>122</v>
       </c>
       <c r="H48" s="19" t="b">
         <v>0</v>
@@ -18598,152 +18641,152 @@
     </row>
     <row r="49" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="H49" s="19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49"/>
     </row>
     <row r="50" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F50" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G50" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="19" t="s">
-        <v>156</v>
+      <c r="H50" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="I50"/>
     </row>
     <row r="51" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="G51" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="19">
-        <v>1</v>
+      <c r="H51" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="I51"/>
       <c r="J51" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" s="22" t="s">
         <v>158</v>
-      </c>
-      <c r="K51" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L51" s="22" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" s="19">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H52" s="19">
         <v>1</v>
       </c>
       <c r="I52"/>
       <c r="J52" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L52" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>75</v>
+        <v>33</v>
+      </c>
+      <c r="F53" s="19">
+        <v>1</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" s="19" t="s">
-        <v>163</v>
+        <v>39</v>
+      </c>
+      <c r="H53" s="19">
+        <v>1</v>
       </c>
       <c r="I53"/>
     </row>
     <row r="54" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="I54"/>
       <c r="J54" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K54" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L54" s="19">
         <v>188.53</v>
@@ -18751,40 +18794,40 @@
     </row>
     <row r="55" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H55" s="19">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="I55"/>
     </row>
     <row r="56" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H56" s="19">
         <v>0</v>
@@ -18793,103 +18836,103 @@
     </row>
     <row r="57" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H57" s="19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I57"/>
     </row>
     <row r="58" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="H58" s="19">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I58"/>
     </row>
     <row r="59" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="H59" s="19">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="I59"/>
     </row>
     <row r="60" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="H60" s="19">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I60"/>
     </row>
     <row r="61" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="H61" s="19">
         <v>1</v>
@@ -18898,19 +18941,19 @@
     </row>
     <row r="62" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="H62" s="19">
         <v>1</v>
@@ -18919,124 +18962,124 @@
     </row>
     <row r="63" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="H63" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63"/>
     </row>
     <row r="64" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H64" s="19" t="s">
-        <v>51</v>
+        <v>89</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H64" s="19">
+        <v>0</v>
       </c>
       <c r="I64"/>
     </row>
     <row r="65" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" s="19">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H65" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="I65"/>
     </row>
     <row r="66" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H66" s="19" t="s">
-        <v>134</v>
+        <v>16</v>
+      </c>
+      <c r="H66" s="19">
+        <v>1</v>
       </c>
       <c r="I66"/>
     </row>
     <row r="67" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" s="19">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="H67" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="I67"/>
     </row>
     <row r="68" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F68" s="19">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H68" s="19">
         <v>1</v>
@@ -19045,274 +19088,274 @@
     </row>
     <row r="69" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F69" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G69" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" s="19" t="s">
-        <v>51</v>
+        <v>33</v>
+      </c>
+      <c r="F69" s="19">
+        <v>1</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H69" s="19">
+        <v>1</v>
       </c>
       <c r="I69"/>
     </row>
     <row r="70" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>17</v>
+        <v>48</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I70"/>
     </row>
     <row r="71" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="H71" s="19" t="b">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="H71" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="I71"/>
     </row>
     <row r="72" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" s="19" t="s">
-        <v>51</v>
+        <v>72</v>
+      </c>
+      <c r="H72" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="I72"/>
       <c r="J72" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I73"/>
     </row>
     <row r="74" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G74" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="H74" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I74"/>
     </row>
     <row r="75" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I75"/>
     </row>
     <row r="76" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H76" s="19">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="H76" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="I76"/>
     </row>
     <row r="77" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="H77" s="19" t="s">
-        <v>121</v>
+        <v>16</v>
+      </c>
+      <c r="H77" s="19">
+        <v>1</v>
       </c>
       <c r="I77"/>
     </row>
     <row r="78" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="I78"/>
     </row>
     <row r="79" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="H79" s="22" t="b">
-        <v>1</v>
+        <v>189</v>
+      </c>
+      <c r="H79" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="I79"/>
     </row>
     <row r="80" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F80" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G80" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="G80" s="15" t="s">
-        <v>122</v>
-      </c>
       <c r="H80" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80"/>
     </row>
     <row r="81" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H81" s="22" t="b">
         <v>0</v>
@@ -19321,334 +19364,334 @@
     </row>
     <row r="82" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H82" s="19" t="s">
-        <v>51</v>
+        <v>121</v>
+      </c>
+      <c r="H82" s="22" t="b">
+        <v>0</v>
       </c>
       <c r="I82"/>
     </row>
     <row r="83" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F83" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="I83"/>
     </row>
     <row r="84" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="H84" s="19" t="b">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="H84" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="I84"/>
     </row>
     <row r="85" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>63</v>
+        <v>198</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" s="19" t="s">
-        <v>51</v>
+        <v>72</v>
+      </c>
+      <c r="H85" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="I85"/>
     </row>
     <row r="86" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H86" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I86"/>
     </row>
     <row r="87" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G87" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="H87" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I87"/>
     </row>
     <row r="88" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" s="15" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H88" s="19" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I88"/>
     </row>
     <row r="89" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H89" s="19" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="I89"/>
     </row>
     <row r="90" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F90" s="19">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="F90" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H90" s="19">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="H90" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="I90"/>
     </row>
     <row r="91" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F91" s="19">
         <v>1</v>
       </c>
-      <c r="G91" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H91" s="18" t="s">
-        <v>11</v>
+      <c r="G91" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H91" s="19">
+        <v>1</v>
       </c>
       <c r="I91"/>
     </row>
     <row r="92" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F92" s="19">
         <v>1</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="I92"/>
     </row>
     <row r="93" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F93" s="19" t="s">
-        <v>51</v>
+        <v>11</v>
+      </c>
+      <c r="F93" s="19">
+        <v>1</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H93" s="19" t="s">
-        <v>51</v>
+        <v>12</v>
+      </c>
+      <c r="H93" s="18" t="s">
+        <v>241</v>
       </c>
       <c r="I93"/>
     </row>
     <row r="94" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" s="15" t="s">
-        <v>15</v>
+        <v>50</v>
+      </c>
+      <c r="G94" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H94" s="19" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I94"/>
     </row>
     <row r="95" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D95" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F95" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="F95" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G95" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H95" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="I95"/>
     </row>
     <row r="96" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>241</v>
+        <v>35</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H96" s="19">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="H96" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="I96"/>
     </row>
     <row r="97" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H97" s="19">
         <v>1</v>
@@ -19657,19 +19700,19 @@
     </row>
     <row r="98" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F98" s="19">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="F98" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H98" s="19">
         <v>1</v>
@@ -19678,40 +19721,40 @@
     </row>
     <row r="99" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F99" s="19" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="F99" s="19">
+        <v>1</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="H99" s="19" t="b">
+        <v>39</v>
+      </c>
+      <c r="H99" s="19">
         <v>1</v>
       </c>
       <c r="I99"/>
     </row>
     <row r="100" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H100" s="19" t="b">
         <v>1</v>
@@ -19720,19 +19763,19 @@
     </row>
     <row r="101" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H101" s="19" t="b">
         <v>1</v>
@@ -19741,19 +19784,19 @@
     </row>
     <row r="102" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H102" s="19" t="b">
         <v>1</v>
@@ -19762,19 +19805,19 @@
     </row>
     <row r="103" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="G103" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H103" s="19" t="b">
         <v>1</v>
@@ -19783,19 +19826,19 @@
     </row>
     <row r="104" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H104" s="19" t="b">
         <v>1</v>
@@ -19803,19 +19846,19 @@
     </row>
     <row r="105" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H105" s="19" t="b">
         <v>1</v>
@@ -19823,19 +19866,19 @@
     </row>
     <row r="106" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F106" s="19" t="s">
         <v>70</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H106" s="19" t="b">
         <v>1</v>
@@ -19844,19 +19887,19 @@
     </row>
     <row r="107" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F107" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H107" s="19" t="b">
         <v>1</v>
@@ -19865,19 +19908,19 @@
     </row>
     <row r="108" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F108" s="19" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H108" s="19" t="b">
         <v>1</v>
@@ -19886,19 +19929,19 @@
     </row>
     <row r="109" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F109" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G109" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="G109" s="15" t="s">
-        <v>122</v>
       </c>
       <c r="H109" s="19" t="b">
         <v>1</v>
@@ -19907,19 +19950,19 @@
     </row>
     <row r="110" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F110" s="19" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H110" s="19" t="b">
         <v>1</v>
@@ -19928,19 +19971,19 @@
     </row>
     <row r="111" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H111" s="19" t="b">
         <v>1</v>
@@ -19949,19 +19992,19 @@
     </row>
     <row r="112" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H112" s="19" t="b">
         <v>1</v>
@@ -19970,19 +20013,19 @@
     </row>
     <row r="113" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H113" s="19" t="b">
         <v>1</v>
@@ -19991,19 +20034,19 @@
     </row>
     <row r="114" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F114" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H114" s="19" t="b">
         <v>1</v>
@@ -20012,19 +20055,19 @@
     </row>
     <row r="115" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H115" s="19" t="b">
         <v>1</v>
@@ -20033,19 +20076,19 @@
     </row>
     <row r="116" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="H116" s="19" t="b">
         <v>1</v>
@@ -20054,61 +20097,61 @@
     </row>
     <row r="117" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H117" s="19">
+        <v>231</v>
+      </c>
+      <c r="H117" s="19" t="b">
         <v>1</v>
       </c>
       <c r="I117"/>
     </row>
     <row r="118" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>57</v>
+        <v>246</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H118" s="19">
-        <v>1</v>
+        <v>231</v>
+      </c>
+      <c r="H118" s="19" t="b">
+        <v>0</v>
       </c>
       <c r="I118"/>
     </row>
     <row r="119" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H119" s="19">
         <v>1</v>
@@ -20117,124 +20160,150 @@
     </row>
     <row r="120" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G120" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H120" s="19" t="s">
-        <v>51</v>
+        <v>16</v>
+      </c>
+      <c r="H120" s="19">
+        <v>1</v>
       </c>
       <c r="I120"/>
     </row>
     <row r="121" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H121" s="19" t="s">
-        <v>45</v>
+        <v>16</v>
+      </c>
+      <c r="H121" s="19">
+        <v>1</v>
       </c>
       <c r="I121"/>
     </row>
     <row r="122" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F122" s="19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H122" s="19" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I122"/>
     </row>
     <row r="123" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H123" s="19" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I123"/>
     </row>
     <row r="124" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D124" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F124" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G124" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H124" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I124"/>
+    </row>
+    <row r="125" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D125" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F125" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G125" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H125" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I125"/>
+    </row>
+    <row r="126" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F126" s="19">
+        <v>1</v>
+      </c>
+      <c r="G126" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F124" s="19">
+      <c r="H126" s="19">
         <v>1</v>
       </c>
-      <c r="G124" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H124" s="19">
-        <v>1</v>
-      </c>
-      <c r="I124"/>
-    </row>
-    <row r="125" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="10"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="13"/>
-      <c r="I125"/>
-    </row>
-    <row r="126" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="11"/>
-      <c r="F126" s="14"/>
-      <c r="H126" s="13"/>
+      <c r="I126"/>
     </row>
     <row r="127" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="11"/>
@@ -20243,30 +20312,30 @@
     </row>
     <row r="128" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="11"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="12"/>
+      <c r="F128" s="14"/>
+      <c r="H128" s="13"/>
     </row>
     <row r="129" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="11"/>
       <c r="F129" s="13"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="12"/>
+      <c r="H129" s="13"/>
     </row>
     <row r="130" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B130" s="11"/>
       <c r="F130" s="13"/>
       <c r="G130" s="11"/>
-      <c r="H130" s="13"/>
+      <c r="H130" s="12"/>
     </row>
     <row r="131" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B131" s="11"/>
       <c r="F131" s="13"/>
-      <c r="H131" s="13"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="12"/>
     </row>
     <row r="132" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B132" s="11"/>
       <c r="F132" s="13"/>
+      <c r="G132" s="11"/>
       <c r="H132" s="13"/>
     </row>
     <row r="133" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -20287,7 +20356,6 @@
     <row r="136" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B136" s="11"/>
       <c r="F136" s="13"/>
-      <c r="G136" s="11"/>
       <c r="H136" s="13"/>
     </row>
     <row r="137" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -20298,6 +20366,7 @@
     <row r="138" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B138" s="11"/>
       <c r="F138" s="13"/>
+      <c r="G138" s="11"/>
       <c r="H138" s="13"/>
     </row>
     <row r="139" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -20323,29 +20392,29 @@
     <row r="143" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="11"/>
       <c r="F143" s="13"/>
-      <c r="G143" s="11"/>
-      <c r="H143" s="12"/>
+      <c r="H143" s="13"/>
     </row>
     <row r="144" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B144" s="11"/>
       <c r="F144" s="13"/>
-      <c r="G144" s="11"/>
-      <c r="H144" s="12"/>
+      <c r="H144" s="13"/>
     </row>
     <row r="145" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B145" s="11"/>
       <c r="F145" s="13"/>
       <c r="G145" s="11"/>
-      <c r="H145" s="13"/>
+      <c r="H145" s="12"/>
     </row>
     <row r="146" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B146" s="11"/>
       <c r="F146" s="13"/>
-      <c r="H146" s="13"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="12"/>
     </row>
     <row r="147" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B147" s="11"/>
       <c r="F147" s="13"/>
+      <c r="G147" s="11"/>
       <c r="H147" s="13"/>
     </row>
     <row r="148" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -20413,103 +20482,98 @@
       <c r="F160" s="13"/>
       <c r="H160" s="13"/>
     </row>
-    <row r="161" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B161" s="11"/>
       <c r="F161" s="13"/>
       <c r="H161" s="13"/>
     </row>
-    <row r="162" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B162" s="11"/>
       <c r="F162" s="13"/>
       <c r="H162" s="13"/>
     </row>
-    <row r="163" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B163" s="11"/>
       <c r="F163" s="13"/>
       <c r="H163" s="13"/>
     </row>
-    <row r="164" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B164" s="11"/>
-      <c r="F164" s="14"/>
+      <c r="F164" s="13"/>
       <c r="H164" s="13"/>
     </row>
-    <row r="165" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B165" s="11"/>
       <c r="F165" s="13"/>
       <c r="H165" s="13"/>
     </row>
-    <row r="166" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B166" s="11"/>
-      <c r="F166" s="13"/>
+      <c r="F166" s="14"/>
       <c r="H166" s="13"/>
     </row>
-    <row r="167" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B167" s="11"/>
       <c r="F167" s="13"/>
       <c r="H167" s="13"/>
     </row>
-    <row r="168" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B168" s="11"/>
       <c r="F168" s="13"/>
-      <c r="H168" s="14"/>
-    </row>
-    <row r="169" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H168" s="13"/>
+    </row>
+    <row r="169" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B169" s="11"/>
       <c r="F169" s="13"/>
       <c r="H169" s="13"/>
     </row>
-    <row r="170" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B170" s="11"/>
       <c r="F170" s="13"/>
-      <c r="H170" s="13"/>
-    </row>
-    <row r="171" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H170" s="14"/>
+    </row>
+    <row r="171" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B171" s="11"/>
       <c r="F171" s="13"/>
       <c r="H171" s="13"/>
     </row>
-    <row r="172" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B172" s="11"/>
       <c r="F172" s="13"/>
       <c r="H172" s="13"/>
     </row>
-    <row r="173" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B173" s="11"/>
       <c r="F173" s="13"/>
       <c r="H173" s="13"/>
-      <c r="J173" s="11"/>
-      <c r="K173" s="13"/>
-    </row>
-    <row r="174" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="4"/>
-      <c r="B174" s="5"/>
-      <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
-      <c r="F174" s="8"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="7"/>
+    </row>
+    <row r="174" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="11"/>
+      <c r="F174" s="13"/>
+      <c r="H174" s="13"/>
       <c r="J174" s="11"/>
       <c r="K174" s="13"/>
     </row>
-    <row r="175" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="5"/>
-      <c r="F175" s="8"/>
-      <c r="G175" s="5"/>
-      <c r="H175" s="7"/>
-      <c r="J175" s="5"/>
-      <c r="K175" s="8"/>
-    </row>
-    <row r="176" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="11"/>
+      <c r="F175" s="13"/>
+      <c r="H175" s="13"/>
+      <c r="J175" s="11"/>
+      <c r="K175" s="13"/>
+    </row>
+    <row r="176" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B176" s="5"/>
       <c r="F176" s="8"/>
       <c r="G176" s="5"/>
-      <c r="H176" s="8"/>
+      <c r="H176" s="7"/>
+      <c r="J176" s="5"/>
+      <c r="K176" s="8"/>
     </row>
     <row r="177" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B177" s="5"/>
       <c r="F177" s="8"/>
-      <c r="H177" s="8"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="7"/>
     </row>
     <row r="178" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B178" s="5"/>
@@ -20520,7 +20584,6 @@
     <row r="179" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B179" s="5"/>
       <c r="F179" s="8"/>
-      <c r="G179" s="5"/>
       <c r="H179" s="8"/>
     </row>
     <row r="180" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -20574,11 +20637,13 @@
     <row r="188" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B188" s="5"/>
       <c r="F188" s="8"/>
+      <c r="G188" s="5"/>
       <c r="H188" s="8"/>
     </row>
     <row r="189" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B189" s="5"/>
       <c r="F189" s="8"/>
+      <c r="G189" s="5"/>
       <c r="H189" s="8"/>
     </row>
     <row r="190" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -20609,7 +20674,7 @@
     <row r="195" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B195" s="5"/>
       <c r="F195" s="8"/>
-      <c r="H195" s="9"/>
+      <c r="H195" s="8"/>
     </row>
     <row r="196" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B196" s="5"/>
@@ -20619,7 +20684,7 @@
     <row r="197" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B197" s="5"/>
       <c r="F197" s="8"/>
-      <c r="H197" s="8"/>
+      <c r="H197" s="9"/>
     </row>
     <row r="198" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B198" s="5"/>
@@ -20629,14 +20694,12 @@
     <row r="199" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B199" s="5"/>
       <c r="F199" s="8"/>
-      <c r="G199" s="5"/>
-      <c r="H199" s="7"/>
+      <c r="H199" s="8"/>
     </row>
     <row r="200" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B200" s="5"/>
       <c r="F200" s="8"/>
-      <c r="G200" s="5"/>
-      <c r="H200" s="7"/>
+      <c r="H200" s="8"/>
     </row>
     <row r="201" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B201" s="5"/>
@@ -20647,12 +20710,14 @@
     <row r="202" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B202" s="5"/>
       <c r="F202" s="8"/>
-      <c r="H202" s="8"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="7"/>
     </row>
     <row r="203" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B203" s="5"/>
       <c r="F203" s="8"/>
-      <c r="H203" s="8"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="7"/>
     </row>
     <row r="204" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B204" s="5"/>
@@ -20677,7 +20742,7 @@
     <row r="208" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B208" s="5"/>
       <c r="F208" s="8"/>
-      <c r="H208" s="9"/>
+      <c r="H208" s="8"/>
     </row>
     <row r="209" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B209" s="5"/>
@@ -20687,30 +20752,29 @@
     <row r="210" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B210" s="5"/>
       <c r="F210" s="8"/>
-      <c r="H210" s="8"/>
+      <c r="H210" s="9"/>
     </row>
     <row r="211" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B211" s="5"/>
       <c r="F211" s="8"/>
-      <c r="G211" s="5"/>
-      <c r="H211" s="7"/>
+      <c r="H211" s="8"/>
     </row>
     <row r="212" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B212" s="5"/>
       <c r="F212" s="8"/>
-      <c r="G212" s="5"/>
-      <c r="H212" s="7"/>
+      <c r="H212" s="8"/>
     </row>
     <row r="213" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B213" s="5"/>
       <c r="F213" s="8"/>
       <c r="G213" s="5"/>
-      <c r="H213" s="8"/>
+      <c r="H213" s="7"/>
     </row>
     <row r="214" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B214" s="5"/>
       <c r="F214" s="8"/>
-      <c r="H214" s="8"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="7"/>
     </row>
     <row r="215" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B215" s="5"/>
@@ -20721,7 +20785,6 @@
     <row r="216" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B216" s="5"/>
       <c r="F216" s="8"/>
-      <c r="G216" s="5"/>
       <c r="H216" s="8"/>
     </row>
     <row r="217" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -20769,11 +20832,13 @@
     <row r="224" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B224" s="5"/>
       <c r="F224" s="8"/>
+      <c r="G224" s="5"/>
       <c r="H224" s="8"/>
     </row>
     <row r="225" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B225" s="5"/>
       <c r="F225" s="8"/>
+      <c r="G225" s="5"/>
       <c r="H225" s="8"/>
     </row>
     <row r="226" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -20804,7 +20869,7 @@
     <row r="231" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B231" s="5"/>
       <c r="F231" s="8"/>
-      <c r="H231" s="9"/>
+      <c r="H231" s="8"/>
     </row>
     <row r="232" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B232" s="5"/>
@@ -20814,7 +20879,7 @@
     <row r="233" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B233" s="5"/>
       <c r="F233" s="8"/>
-      <c r="H233" s="8"/>
+      <c r="H233" s="9"/>
     </row>
     <row r="234" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B234" s="5"/>
@@ -20824,14 +20889,12 @@
     <row r="235" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B235" s="5"/>
       <c r="F235" s="8"/>
-      <c r="G235" s="5"/>
-      <c r="H235" s="7"/>
+      <c r="H235" s="8"/>
     </row>
     <row r="236" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B236" s="5"/>
       <c r="F236" s="8"/>
-      <c r="G236" s="5"/>
-      <c r="H236" s="7"/>
+      <c r="H236" s="8"/>
     </row>
     <row r="237" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B237" s="5"/>
@@ -20842,12 +20905,14 @@
     <row r="238" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B238" s="5"/>
       <c r="F238" s="8"/>
-      <c r="H238" s="8"/>
+      <c r="G238" s="5"/>
+      <c r="H238" s="7"/>
     </row>
     <row r="239" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B239" s="5"/>
       <c r="F239" s="8"/>
-      <c r="H239" s="8"/>
+      <c r="G239" s="5"/>
+      <c r="H239" s="7"/>
     </row>
     <row r="240" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B240" s="5"/>
@@ -20867,7 +20932,7 @@
     <row r="243" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B243" s="5"/>
       <c r="F243" s="8"/>
-      <c r="H243" s="9"/>
+      <c r="H243" s="8"/>
     </row>
     <row r="244" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B244" s="5"/>
@@ -20877,31 +20942,30 @@
     <row r="245" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B245" s="5"/>
       <c r="F245" s="8"/>
-      <c r="G245" s="6"/>
-      <c r="H245" s="8"/>
+      <c r="H245" s="9"/>
     </row>
     <row r="246" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B246" s="5"/>
       <c r="F246" s="8"/>
-      <c r="G246" s="5"/>
-      <c r="H246" s="7"/>
+      <c r="H246" s="8"/>
     </row>
     <row r="247" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B247" s="5"/>
       <c r="F247" s="8"/>
-      <c r="G247" s="5"/>
-      <c r="H247" s="7"/>
+      <c r="G247" s="6"/>
+      <c r="H247" s="8"/>
     </row>
     <row r="248" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B248" s="5"/>
       <c r="F248" s="8"/>
       <c r="G248" s="5"/>
-      <c r="H248" s="8"/>
+      <c r="H248" s="7"/>
     </row>
     <row r="249" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B249" s="5"/>
       <c r="F249" s="8"/>
-      <c r="H249" s="8"/>
+      <c r="G249" s="5"/>
+      <c r="H249" s="7"/>
     </row>
     <row r="250" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B250" s="5"/>
@@ -20912,7 +20976,6 @@
     <row r="251" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B251" s="5"/>
       <c r="F251" s="8"/>
-      <c r="G251" s="5"/>
       <c r="H251" s="8"/>
     </row>
     <row r="252" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -20984,11 +21047,13 @@
     <row r="263" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B263" s="5"/>
       <c r="F263" s="8"/>
+      <c r="G263" s="5"/>
       <c r="H263" s="8"/>
     </row>
     <row r="264" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B264" s="5"/>
       <c r="F264" s="8"/>
+      <c r="G264" s="5"/>
       <c r="H264" s="8"/>
     </row>
     <row r="265" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -21019,7 +21084,7 @@
     <row r="270" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B270" s="5"/>
       <c r="F270" s="8"/>
-      <c r="H270" s="9"/>
+      <c r="H270" s="8"/>
     </row>
     <row r="271" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B271" s="5"/>
@@ -21029,7 +21094,7 @@
     <row r="272" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B272" s="5"/>
       <c r="F272" s="8"/>
-      <c r="H272" s="8"/>
+      <c r="H272" s="9"/>
     </row>
     <row r="273" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B273" s="5"/>
@@ -21039,14 +21104,12 @@
     <row r="274" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B274" s="5"/>
       <c r="F274" s="8"/>
-      <c r="G274" s="5"/>
-      <c r="H274" s="7"/>
+      <c r="H274" s="8"/>
     </row>
     <row r="275" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B275" s="5"/>
       <c r="F275" s="8"/>
-      <c r="G275" s="5"/>
-      <c r="H275" s="7"/>
+      <c r="H275" s="8"/>
     </row>
     <row r="276" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B276" s="5"/>
@@ -21057,12 +21120,14 @@
     <row r="277" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B277" s="5"/>
       <c r="F277" s="8"/>
-      <c r="H277" s="8"/>
+      <c r="G277" s="5"/>
+      <c r="H277" s="7"/>
     </row>
     <row r="278" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B278" s="5"/>
       <c r="F278" s="8"/>
-      <c r="H278" s="8"/>
+      <c r="G278" s="5"/>
+      <c r="H278" s="7"/>
     </row>
     <row r="279" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B279" s="5"/>
@@ -21071,54 +21136,53 @@
     </row>
     <row r="280" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B280" s="5"/>
-      <c r="E280" s="8"/>
       <c r="F280" s="8"/>
       <c r="H280" s="8"/>
     </row>
     <row r="281" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B281" s="5"/>
-      <c r="E281" s="7"/>
       <c r="F281" s="8"/>
       <c r="H281" s="8"/>
     </row>
     <row r="282" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B282" s="5"/>
+      <c r="E282" s="8"/>
       <c r="F282" s="8"/>
-      <c r="H282" s="9"/>
+      <c r="H282" s="8"/>
     </row>
     <row r="283" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B283" s="5"/>
+      <c r="E283" s="7"/>
       <c r="F283" s="8"/>
       <c r="H283" s="8"/>
     </row>
     <row r="284" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B284" s="5"/>
       <c r="F284" s="8"/>
-      <c r="G284" s="6"/>
-      <c r="H284" s="8"/>
+      <c r="H284" s="9"/>
     </row>
     <row r="285" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B285" s="5"/>
       <c r="F285" s="8"/>
-      <c r="G285" s="5"/>
-      <c r="H285" s="7"/>
+      <c r="H285" s="8"/>
     </row>
     <row r="286" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B286" s="5"/>
       <c r="F286" s="8"/>
-      <c r="G286" s="5"/>
-      <c r="H286" s="7"/>
+      <c r="G286" s="6"/>
+      <c r="H286" s="8"/>
     </row>
     <row r="287" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B287" s="5"/>
       <c r="F287" s="8"/>
       <c r="G287" s="5"/>
-      <c r="H287" s="8"/>
+      <c r="H287" s="7"/>
     </row>
     <row r="288" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B288" s="5"/>
       <c r="F288" s="8"/>
-      <c r="H288" s="8"/>
+      <c r="G288" s="5"/>
+      <c r="H288" s="7"/>
     </row>
     <row r="289" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B289" s="5"/>
@@ -21129,7 +21193,6 @@
     <row r="290" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B290" s="5"/>
       <c r="F290" s="8"/>
-      <c r="G290" s="5"/>
       <c r="H290" s="8"/>
     </row>
     <row r="291" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -21177,11 +21240,13 @@
     <row r="298" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B298" s="5"/>
       <c r="F298" s="8"/>
+      <c r="G298" s="5"/>
       <c r="H298" s="8"/>
     </row>
     <row r="299" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B299" s="5"/>
       <c r="F299" s="8"/>
+      <c r="G299" s="5"/>
       <c r="H299" s="8"/>
     </row>
     <row r="300" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -21212,7 +21277,7 @@
     <row r="305" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B305" s="5"/>
       <c r="F305" s="8"/>
-      <c r="H305" s="9"/>
+      <c r="H305" s="8"/>
     </row>
     <row r="306" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B306" s="5"/>
@@ -21222,7 +21287,7 @@
     <row r="307" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B307" s="5"/>
       <c r="F307" s="8"/>
-      <c r="H307" s="8"/>
+      <c r="H307" s="9"/>
     </row>
     <row r="308" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B308" s="5"/>
@@ -21232,14 +21297,12 @@
     <row r="309" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B309" s="5"/>
       <c r="F309" s="8"/>
-      <c r="G309" s="5"/>
-      <c r="H309" s="7"/>
+      <c r="H309" s="8"/>
     </row>
     <row r="310" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B310" s="5"/>
       <c r="F310" s="8"/>
-      <c r="G310" s="5"/>
-      <c r="H310" s="7"/>
+      <c r="H310" s="8"/>
     </row>
     <row r="311" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B311" s="5"/>
@@ -21250,12 +21313,14 @@
     <row r="312" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B312" s="5"/>
       <c r="F312" s="8"/>
-      <c r="H312" s="8"/>
+      <c r="G312" s="5"/>
+      <c r="H312" s="7"/>
     </row>
     <row r="313" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B313" s="5"/>
       <c r="F313" s="8"/>
-      <c r="H313" s="8"/>
+      <c r="G313" s="5"/>
+      <c r="H313" s="7"/>
     </row>
     <row r="314" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B314" s="5"/>
@@ -21280,7 +21345,7 @@
     <row r="318" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B318" s="5"/>
       <c r="F318" s="8"/>
-      <c r="H318" s="9"/>
+      <c r="H318" s="8"/>
     </row>
     <row r="319" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B319" s="5"/>
@@ -21290,31 +21355,30 @@
     <row r="320" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B320" s="5"/>
       <c r="F320" s="8"/>
-      <c r="G320" s="6"/>
-      <c r="H320" s="8"/>
+      <c r="H320" s="9"/>
     </row>
     <row r="321" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B321" s="5"/>
       <c r="F321" s="8"/>
-      <c r="G321" s="5"/>
-      <c r="H321" s="7"/>
+      <c r="H321" s="8"/>
     </row>
     <row r="322" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B322" s="5"/>
       <c r="F322" s="8"/>
-      <c r="G322" s="5"/>
-      <c r="H322" s="7"/>
+      <c r="G322" s="6"/>
+      <c r="H322" s="8"/>
     </row>
     <row r="323" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B323" s="5"/>
       <c r="F323" s="8"/>
       <c r="G323" s="5"/>
-      <c r="H323" s="8"/>
+      <c r="H323" s="7"/>
     </row>
     <row r="324" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B324" s="5"/>
       <c r="F324" s="8"/>
-      <c r="H324" s="8"/>
+      <c r="G324" s="5"/>
+      <c r="H324" s="7"/>
     </row>
     <row r="325" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B325" s="5"/>
@@ -21325,7 +21389,6 @@
     <row r="326" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B326" s="5"/>
       <c r="F326" s="8"/>
-      <c r="G326" s="5"/>
       <c r="H326" s="8"/>
     </row>
     <row r="327" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -21397,11 +21460,13 @@
     <row r="338" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B338" s="5"/>
       <c r="F338" s="8"/>
+      <c r="G338" s="5"/>
       <c r="H338" s="8"/>
     </row>
     <row r="339" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B339" s="5"/>
       <c r="F339" s="8"/>
+      <c r="G339" s="5"/>
       <c r="H339" s="8"/>
     </row>
     <row r="340" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -21432,7 +21497,7 @@
     <row r="345" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B345" s="5"/>
       <c r="F345" s="8"/>
-      <c r="H345" s="9"/>
+      <c r="H345" s="8"/>
     </row>
     <row r="346" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B346" s="5"/>
@@ -21442,7 +21507,7 @@
     <row r="347" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B347" s="5"/>
       <c r="F347" s="8"/>
-      <c r="H347" s="8"/>
+      <c r="H347" s="9"/>
     </row>
     <row r="348" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B348" s="5"/>
@@ -21452,14 +21517,12 @@
     <row r="349" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B349" s="5"/>
       <c r="F349" s="8"/>
-      <c r="G349" s="5"/>
-      <c r="H349" s="7"/>
+      <c r="H349" s="8"/>
     </row>
     <row r="350" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B350" s="5"/>
       <c r="F350" s="8"/>
-      <c r="G350" s="5"/>
-      <c r="H350" s="7"/>
+      <c r="H350" s="8"/>
     </row>
     <row r="351" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B351" s="5"/>
@@ -21470,12 +21533,14 @@
     <row r="352" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B352" s="5"/>
       <c r="F352" s="8"/>
-      <c r="H352" s="8"/>
+      <c r="G352" s="5"/>
+      <c r="H352" s="7"/>
     </row>
     <row r="353" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B353" s="5"/>
       <c r="F353" s="8"/>
-      <c r="H353" s="8"/>
+      <c r="G353" s="5"/>
+      <c r="H353" s="7"/>
     </row>
     <row r="354" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B354" s="5"/>
@@ -21500,7 +21565,7 @@
     <row r="358" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B358" s="5"/>
       <c r="F358" s="8"/>
-      <c r="H358" s="9"/>
+      <c r="H358" s="8"/>
     </row>
     <row r="359" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B359" s="5"/>
@@ -21510,31 +21575,30 @@
     <row r="360" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B360" s="5"/>
       <c r="F360" s="8"/>
-      <c r="G360" s="6"/>
-      <c r="H360" s="8"/>
+      <c r="H360" s="9"/>
     </row>
     <row r="361" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B361" s="5"/>
       <c r="F361" s="8"/>
-      <c r="G361" s="5"/>
-      <c r="H361" s="7"/>
+      <c r="H361" s="8"/>
     </row>
     <row r="362" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B362" s="5"/>
       <c r="F362" s="8"/>
-      <c r="G362" s="5"/>
-      <c r="H362" s="7"/>
+      <c r="G362" s="6"/>
+      <c r="H362" s="8"/>
     </row>
     <row r="363" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B363" s="5"/>
       <c r="F363" s="8"/>
       <c r="G363" s="5"/>
-      <c r="H363" s="8"/>
+      <c r="H363" s="7"/>
     </row>
     <row r="364" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B364" s="5"/>
       <c r="F364" s="8"/>
-      <c r="H364" s="8"/>
+      <c r="G364" s="5"/>
+      <c r="H364" s="7"/>
     </row>
     <row r="365" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B365" s="5"/>
@@ -21545,7 +21609,6 @@
     <row r="366" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B366" s="5"/>
       <c r="F366" s="8"/>
-      <c r="G366" s="5"/>
       <c r="H366" s="8"/>
     </row>
     <row r="367" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -21617,11 +21680,13 @@
     <row r="378" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B378" s="5"/>
       <c r="F378" s="8"/>
+      <c r="G378" s="5"/>
       <c r="H378" s="8"/>
     </row>
     <row r="379" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B379" s="5"/>
       <c r="F379" s="8"/>
+      <c r="G379" s="5"/>
       <c r="H379" s="8"/>
     </row>
     <row r="380" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -21652,7 +21717,6 @@
     <row r="385" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B385" s="5"/>
       <c r="F385" s="8"/>
-      <c r="G385" s="5"/>
       <c r="H385" s="8"/>
     </row>
     <row r="386" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -21663,6 +21727,7 @@
     <row r="387" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B387" s="5"/>
       <c r="F387" s="8"/>
+      <c r="G387" s="5"/>
       <c r="H387" s="8"/>
     </row>
     <row r="388" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -21688,23 +21753,23 @@
     <row r="392" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B392" s="5"/>
       <c r="F392" s="8"/>
-      <c r="G392" s="5"/>
       <c r="H392" s="8"/>
     </row>
     <row r="393" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B393" s="5"/>
       <c r="F393" s="8"/>
-      <c r="G393" s="5"/>
       <c r="H393" s="8"/>
     </row>
     <row r="394" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B394" s="5"/>
       <c r="F394" s="8"/>
+      <c r="G394" s="5"/>
       <c r="H394" s="8"/>
     </row>
     <row r="395" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B395" s="5"/>
       <c r="F395" s="8"/>
+      <c r="G395" s="5"/>
       <c r="H395" s="8"/>
     </row>
     <row r="396" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -21730,7 +21795,6 @@
     <row r="400" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B400" s="5"/>
       <c r="F400" s="8"/>
-      <c r="G400" s="5"/>
       <c r="H400" s="8"/>
     </row>
     <row r="401" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -21741,6 +21805,7 @@
     <row r="402" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B402" s="5"/>
       <c r="F402" s="8"/>
+      <c r="G402" s="5"/>
       <c r="H402" s="8"/>
     </row>
     <row r="403" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -21766,7 +21831,7 @@
     <row r="407" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B407" s="5"/>
       <c r="F407" s="8"/>
-      <c r="H407" s="9"/>
+      <c r="H407" s="8"/>
     </row>
     <row r="408" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B408" s="5"/>
@@ -21776,25 +21841,23 @@
     <row r="409" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B409" s="5"/>
       <c r="F409" s="8"/>
-      <c r="H409" s="8"/>
+      <c r="H409" s="9"/>
     </row>
     <row r="410" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B410" s="5"/>
       <c r="F410" s="8"/>
-      <c r="G410" s="6"/>
       <c r="H410" s="8"/>
     </row>
     <row r="411" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B411" s="5"/>
       <c r="F411" s="8"/>
-      <c r="G411" s="5"/>
-      <c r="H411" s="7"/>
+      <c r="H411" s="8"/>
     </row>
     <row r="412" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B412" s="5"/>
       <c r="F412" s="8"/>
-      <c r="G412" s="5"/>
-      <c r="H412" s="7"/>
+      <c r="G412" s="6"/>
+      <c r="H412" s="8"/>
     </row>
     <row r="413" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B413" s="5"/>
@@ -21805,58 +21868,60 @@
     <row r="414" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B414" s="5"/>
       <c r="F414" s="8"/>
-      <c r="H414" s="8"/>
+      <c r="G414" s="5"/>
+      <c r="H414" s="7"/>
     </row>
     <row r="415" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B415" s="5"/>
       <c r="F415" s="8"/>
-      <c r="H415" s="8"/>
+      <c r="G415" s="5"/>
+      <c r="H415" s="7"/>
     </row>
     <row r="416" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B416" s="5"/>
       <c r="F416" s="8"/>
       <c r="H416" s="8"/>
     </row>
-    <row r="417" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B417" s="5"/>
       <c r="F417" s="8"/>
       <c r="H417" s="8"/>
     </row>
-    <row r="418" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B418" s="5"/>
       <c r="F418" s="8"/>
       <c r="H418" s="8"/>
     </row>
-    <row r="419" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B419" s="5"/>
       <c r="F419" s="8"/>
       <c r="H419" s="8"/>
     </row>
-    <row r="420" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B420" s="5"/>
       <c r="F420" s="8"/>
-      <c r="H420" s="9"/>
-    </row>
-    <row r="421" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H420" s="8"/>
+    </row>
+    <row r="421" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B421" s="5"/>
       <c r="F421" s="8"/>
       <c r="H421" s="8"/>
     </row>
-    <row r="422" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B422" s="5"/>
       <c r="F422" s="8"/>
-      <c r="G422" s="6"/>
-      <c r="H422" s="8"/>
-    </row>
-    <row r="423" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="1"/>
-      <c r="B423" s="1"/>
-      <c r="C423" s="1"/>
-      <c r="D423" s="1"/>
-      <c r="E423" s="1"/>
-      <c r="F423" s="1"/>
-      <c r="G423" s="1"/>
-      <c r="H423" s="1"/>
+      <c r="H422" s="9"/>
+    </row>
+    <row r="423" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B423" s="5"/>
+      <c r="F423" s="8"/>
+      <c r="H423" s="8"/>
+    </row>
+    <row r="424" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B424" s="5"/>
+      <c r="F424" s="8"/>
+      <c r="G424" s="6"/>
+      <c r="H424" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
